--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>432.5281603895407</v>
+        <v>469.1150517391263</v>
       </c>
       <c r="AB2" t="n">
-        <v>591.8041108406813</v>
+        <v>641.8639096849132</v>
       </c>
       <c r="AC2" t="n">
-        <v>535.3231571043323</v>
+        <v>580.6053190062395</v>
       </c>
       <c r="AD2" t="n">
-        <v>432528.1603895407</v>
+        <v>469115.0517391263</v>
       </c>
       <c r="AE2" t="n">
-        <v>591804.1108406814</v>
+        <v>641863.9096849132</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.101109220212084e-06</v>
+        <v>3.887602158103723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.233072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>535323.1571043322</v>
+        <v>580605.3190062395</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.1555670766804</v>
+        <v>243.6570280631427</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.4393859328002</v>
+        <v>333.3822951852603</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.3883287491337</v>
+        <v>301.5647568378682</v>
       </c>
       <c r="AD3" t="n">
-        <v>207155.5670766804</v>
+        <v>243657.0280631428</v>
       </c>
       <c r="AE3" t="n">
-        <v>283439.3859328002</v>
+        <v>333382.2951852602</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.272759575901803e-06</v>
+        <v>6.055462071098906e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.6435546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>256388.3287491337</v>
+        <v>301564.7568378682</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>172.6060884570275</v>
+        <v>196.9120383383629</v>
       </c>
       <c r="AB4" t="n">
-        <v>236.1672650699918</v>
+        <v>269.4237380004477</v>
       </c>
       <c r="AC4" t="n">
-        <v>213.6277927546183</v>
+        <v>243.710314584355</v>
       </c>
       <c r="AD4" t="n">
-        <v>172606.0884570275</v>
+        <v>196912.0383383629</v>
       </c>
       <c r="AE4" t="n">
-        <v>236167.2650699918</v>
+        <v>269423.7380004476</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.667604532010801e-06</v>
+        <v>6.786028616007395e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.143880208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>213627.7927546183</v>
+        <v>243710.314584355</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>172.9210091617405</v>
+        <v>197.226959043076</v>
       </c>
       <c r="AB5" t="n">
-        <v>236.5981534715009</v>
+        <v>269.8546264019568</v>
       </c>
       <c r="AC5" t="n">
-        <v>214.0175577718433</v>
+        <v>244.1000796015799</v>
       </c>
       <c r="AD5" t="n">
-        <v>172921.0091617405</v>
+        <v>197226.959043076</v>
       </c>
       <c r="AE5" t="n">
-        <v>236598.1534715009</v>
+        <v>269854.6264019568</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.66891165648125e-06</v>
+        <v>6.788447138501773e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.142252604166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>214017.5577718433</v>
+        <v>244100.07960158</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>305.1992766957921</v>
+        <v>340.4051617479232</v>
       </c>
       <c r="AB2" t="n">
-        <v>417.587114816999</v>
+        <v>465.7573599193557</v>
       </c>
       <c r="AC2" t="n">
-        <v>377.7331866660604</v>
+        <v>421.3061311832119</v>
       </c>
       <c r="AD2" t="n">
-        <v>305199.2766957921</v>
+        <v>340405.1617479232</v>
       </c>
       <c r="AE2" t="n">
-        <v>417587.1148169989</v>
+        <v>465757.3599193557</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.587631654563965e-06</v>
+        <v>4.932425288998928e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.075846354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>377733.1866660604</v>
+        <v>421306.1311832119</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.1032911668803</v>
+        <v>189.5454640862939</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.2698509344476</v>
+        <v>259.3444661184525</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.5795353365685</v>
+        <v>234.5929942644274</v>
       </c>
       <c r="AD3" t="n">
-        <v>166103.2911668803</v>
+        <v>189545.4640862939</v>
       </c>
       <c r="AE3" t="n">
-        <v>227269.8509344476</v>
+        <v>259344.4661184525</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.69112505359324e-06</v>
+        <v>7.035854012331866e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.259440104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>205579.5353365685</v>
+        <v>234592.9942644274</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>162.3025632141519</v>
+        <v>185.7447361335655</v>
       </c>
       <c r="AB4" t="n">
-        <v>222.069527273244</v>
+        <v>254.1441424572489</v>
       </c>
       <c r="AC4" t="n">
-        <v>200.8755232668884</v>
+        <v>229.8889821947473</v>
       </c>
       <c r="AD4" t="n">
-        <v>162302.5632141519</v>
+        <v>185744.7361335655</v>
       </c>
       <c r="AE4" t="n">
-        <v>222069.527273244</v>
+        <v>254144.1424572489</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.750042425445131e-06</v>
+        <v>7.148159615940889e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.192708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>200875.5232668884</v>
+        <v>229888.9821947473</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.1873514593866</v>
+        <v>177.4923380783873</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.0199835974192</v>
+        <v>242.8528473680523</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.9303570927484</v>
+        <v>219.6753124614278</v>
       </c>
       <c r="AD2" t="n">
-        <v>146187.3514593866</v>
+        <v>177492.3380783873</v>
       </c>
       <c r="AE2" t="n">
-        <v>200019.9835974192</v>
+        <v>242852.8473680523</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.682158305084437e-06</v>
+        <v>7.842033558196968e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.763997395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>180930.3570927484</v>
+        <v>219675.3124614278</v>
       </c>
     </row>
     <row r="3">
@@ -3207,28 +3207,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.0516589832513</v>
+        <v>178.3566456022519</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.202567282127</v>
+        <v>244.0354310527602</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.0000766503547</v>
+        <v>220.7450320190341</v>
       </c>
       <c r="AD3" t="n">
-        <v>147051.6589832513</v>
+        <v>178356.6456022519</v>
       </c>
       <c r="AE3" t="n">
-        <v>201202.567282127</v>
+        <v>244035.4310527602</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.681834977851443e-06</v>
+        <v>7.841344955806375e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.763997395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>182000.0766503547</v>
+        <v>220745.0320190341</v>
       </c>
     </row>
   </sheetData>
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.5885710750725</v>
+        <v>195.4186183591015</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.4608558463316</v>
+        <v>267.3803748997836</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.2295039901938</v>
+        <v>241.8619671901396</v>
       </c>
       <c r="AD2" t="n">
-        <v>162588.5710750725</v>
+        <v>195418.6183591015</v>
       </c>
       <c r="AE2" t="n">
-        <v>222460.8558463316</v>
+        <v>267380.3748997836</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.575600303022503e-06</v>
+        <v>7.259704813372002e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.694010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>201229.5039901938</v>
+        <v>241861.9671901396</v>
       </c>
     </row>
     <row r="3">
@@ -3610,28 +3610,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.6462162444466</v>
+        <v>172.5045569908264</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.1207991075663</v>
+        <v>236.0283452386834</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.4489193331574</v>
+        <v>213.5021312370349</v>
       </c>
       <c r="AD3" t="n">
-        <v>150646.2162444466</v>
+        <v>172504.5569908264</v>
       </c>
       <c r="AE3" t="n">
-        <v>206120.7991075662</v>
+        <v>236028.3452386835</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.771088586263965e-06</v>
+        <v>7.656613614841287e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.449869791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>186448.9193331574</v>
+        <v>213502.1312370349</v>
       </c>
     </row>
   </sheetData>
@@ -3907,28 +3907,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.8389057790763</v>
+        <v>176.931971881614</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.5939101310229</v>
+        <v>242.0861296160157</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.113368532624</v>
+        <v>218.9817691755502</v>
       </c>
       <c r="AD2" t="n">
-        <v>156838.9057790763</v>
+        <v>176931.971881614</v>
       </c>
       <c r="AE2" t="n">
-        <v>214593.9101310229</v>
+        <v>242086.1296160157</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.502084658567967e-06</v>
+        <v>7.798458493303071e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.201822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>194113.368532624</v>
+        <v>218981.7691755502</v>
       </c>
     </row>
   </sheetData>
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>330.4626800227121</v>
+        <v>366.009119659467</v>
       </c>
       <c r="AB2" t="n">
-        <v>452.1536177915852</v>
+        <v>500.7898247008322</v>
       </c>
       <c r="AC2" t="n">
-        <v>409.0007111111438</v>
+        <v>452.9951466943174</v>
       </c>
       <c r="AD2" t="n">
-        <v>330462.6800227121</v>
+        <v>366009.119659467</v>
       </c>
       <c r="AE2" t="n">
-        <v>452153.6177915852</v>
+        <v>500789.8247008322</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.45632126150015e-06</v>
+        <v>4.644322999710276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.3427734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>409000.7111111438</v>
+        <v>452995.1466943174</v>
       </c>
     </row>
     <row r="3">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.6868719801934</v>
+        <v>198.3560812893561</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.0142848840761</v>
+        <v>271.3995412726744</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.2030969934648</v>
+        <v>245.4975499653384</v>
       </c>
       <c r="AD3" t="n">
-        <v>174686.8719801934</v>
+        <v>198356.0812893561</v>
       </c>
       <c r="AE3" t="n">
-        <v>239014.2848840762</v>
+        <v>271399.5412726744</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.594028163307911e-06</v>
+        <v>6.795457875189831e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.334309895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>216203.0969934648</v>
+        <v>245497.5499653384</v>
       </c>
     </row>
     <row r="4">
@@ -4416,28 +4416,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>164.3796430773216</v>
+        <v>188.0488523864844</v>
       </c>
       <c r="AB4" t="n">
-        <v>224.9114795763277</v>
+        <v>257.296735964926</v>
       </c>
       <c r="AC4" t="n">
-        <v>203.4462436308719</v>
+        <v>232.7406966027454</v>
       </c>
       <c r="AD4" t="n">
-        <v>164379.6430773216</v>
+        <v>188048.8523864844</v>
       </c>
       <c r="AE4" t="n">
-        <v>224911.4795763277</v>
+        <v>257296.735964926</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.735116836811583e-06</v>
+        <v>7.062223213104763e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.171549479166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>203446.2436308719</v>
+        <v>232740.6966027454</v>
       </c>
     </row>
   </sheetData>
@@ -4713,28 +4713,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.383472472132</v>
+        <v>187.7822394265279</v>
       </c>
       <c r="AB2" t="n">
-        <v>216.7072544219341</v>
+        <v>256.93194435098</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.0250182105086</v>
+        <v>232.4107201884461</v>
       </c>
       <c r="AD2" t="n">
-        <v>158383.472472132</v>
+        <v>187782.2394265279</v>
       </c>
       <c r="AE2" t="n">
-        <v>216707.2544219341</v>
+        <v>256931.94435098</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.343526333746656e-06</v>
+        <v>7.66525729442623e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.576171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>196025.0182105086</v>
+        <v>232410.7201884461</v>
       </c>
     </row>
   </sheetData>
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.0821319672925</v>
+        <v>261.097411766674</v>
       </c>
       <c r="AB2" t="n">
-        <v>310.7037911141213</v>
+        <v>357.2449975840153</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.0506573657912</v>
+        <v>323.1500364110991</v>
       </c>
       <c r="AD2" t="n">
-        <v>227082.1319672925</v>
+        <v>261097.411766674</v>
       </c>
       <c r="AE2" t="n">
-        <v>310703.7911141213</v>
+        <v>357244.9975840152</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.038341920855431e-06</v>
+        <v>5.955108175191278e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.330403645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>281050.6573657912</v>
+        <v>323150.0364110991</v>
       </c>
     </row>
     <row r="3">
@@ -5116,28 +5116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.9267032449646</v>
+        <v>178.6320332322577</v>
       </c>
       <c r="AB3" t="n">
-        <v>213.3457943803164</v>
+        <v>244.4122285573787</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.9843711974231</v>
+        <v>221.0858684986506</v>
       </c>
       <c r="AD3" t="n">
-        <v>155926.7032449646</v>
+        <v>178632.0332322577</v>
       </c>
       <c r="AE3" t="n">
-        <v>213345.7943803164</v>
+        <v>244412.2285573787</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.778621809144555e-06</v>
+        <v>7.406046525618631e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.287109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>192984.3711974231</v>
+        <v>221085.8684986506</v>
       </c>
     </row>
   </sheetData>
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>268.4968213384884</v>
+        <v>303.4344531365022</v>
       </c>
       <c r="AB2" t="n">
-        <v>367.369196199083</v>
+        <v>415.1724053646581</v>
       </c>
       <c r="AC2" t="n">
-        <v>332.307995719747</v>
+        <v>375.5489336947849</v>
       </c>
       <c r="AD2" t="n">
-        <v>268496.8213384884</v>
+        <v>303434.4531365022</v>
       </c>
       <c r="AE2" t="n">
-        <v>367369.1961990831</v>
+        <v>415172.405364658</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.735649169323018e-06</v>
+        <v>5.259841087043142e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.80078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>332307.995719747</v>
+        <v>375548.9336947849</v>
       </c>
     </row>
     <row r="3">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.4514488635735</v>
+        <v>184.6579520495618</v>
       </c>
       <c r="AB3" t="n">
-        <v>220.9049950702682</v>
+        <v>252.6571565279859</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.8221323829331</v>
+        <v>228.5439121155748</v>
       </c>
       <c r="AD3" t="n">
-        <v>161451.4488635735</v>
+        <v>184657.9520495618</v>
       </c>
       <c r="AE3" t="n">
-        <v>220904.9950702682</v>
+        <v>252657.1565279859</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.7346676455993e-06</v>
+        <v>7.180656989593096e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.249674479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>199822.1323829331</v>
+        <v>228543.9121155748</v>
       </c>
     </row>
     <row r="4">
@@ -5625,28 +5625,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>160.5059584485554</v>
+        <v>183.7124616345437</v>
       </c>
       <c r="AB4" t="n">
-        <v>219.6113333723478</v>
+        <v>251.3634948300655</v>
       </c>
       <c r="AC4" t="n">
-        <v>198.6519359417962</v>
+        <v>227.3737156744379</v>
       </c>
       <c r="AD4" t="n">
-        <v>160505.9584485554</v>
+        <v>183712.4616345437</v>
       </c>
       <c r="AE4" t="n">
-        <v>219611.3333723478</v>
+        <v>251363.4948300655</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.757385906869296e-06</v>
+        <v>7.224337460537284e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.2236328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>198651.9359417962</v>
+        <v>227373.7156744379</v>
       </c>
     </row>
   </sheetData>
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>388.7231278726654</v>
+        <v>437.0092087755719</v>
       </c>
       <c r="AB2" t="n">
-        <v>531.8681328094499</v>
+        <v>597.9352789323518</v>
       </c>
       <c r="AC2" t="n">
-        <v>481.1073846957279</v>
+        <v>540.8691751184822</v>
       </c>
       <c r="AD2" t="n">
-        <v>388723.1278726654</v>
+        <v>437009.208775572</v>
       </c>
       <c r="AE2" t="n">
-        <v>531868.1328094499</v>
+        <v>597935.2789323519</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.210418056826696e-06</v>
+        <v>4.117841187562458e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.930338541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>481107.384695728</v>
+        <v>540869.1751184822</v>
       </c>
     </row>
     <row r="3">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>195.4924291731208</v>
+        <v>219.7634809064312</v>
       </c>
       <c r="AB3" t="n">
-        <v>267.4813661118282</v>
+        <v>300.6900898565585</v>
       </c>
       <c r="AC3" t="n">
-        <v>241.9533199426486</v>
+        <v>271.9926497019291</v>
       </c>
       <c r="AD3" t="n">
-        <v>195492.4291731208</v>
+        <v>219763.4809064312</v>
       </c>
       <c r="AE3" t="n">
-        <v>267481.3661118281</v>
+        <v>300690.0898565585</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.382776286225518e-06</v>
+        <v>6.30185564975284e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.527994791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>241953.3199426486</v>
+        <v>271992.6497019291</v>
       </c>
     </row>
     <row r="4">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>169.8007800974091</v>
+        <v>193.9012396301273</v>
       </c>
       <c r="AB4" t="n">
-        <v>232.3289184108937</v>
+        <v>265.3042303807773</v>
       </c>
       <c r="AC4" t="n">
-        <v>210.15577251351</v>
+        <v>239.9839669901394</v>
       </c>
       <c r="AD4" t="n">
-        <v>169800.7800974091</v>
+        <v>193901.2396301273</v>
       </c>
       <c r="AE4" t="n">
-        <v>232328.9184108937</v>
+        <v>265304.2303807773</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.688076928127243e-06</v>
+        <v>6.870607589653749e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.153645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>210155.77251351</v>
+        <v>239983.9669901394</v>
       </c>
     </row>
     <row r="5">
@@ -6240,28 +6240,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>170.2192660523167</v>
+        <v>194.3197255850349</v>
       </c>
       <c r="AB5" t="n">
-        <v>232.9015093566953</v>
+        <v>265.8768213265789</v>
       </c>
       <c r="AC5" t="n">
-        <v>210.6737161830809</v>
+        <v>240.5019106597103</v>
       </c>
       <c r="AD5" t="n">
-        <v>170219.2660523167</v>
+        <v>194319.7255850349</v>
       </c>
       <c r="AE5" t="n">
-        <v>232901.5093566953</v>
+        <v>265876.8213265789</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.686665242051865e-06</v>
+        <v>6.867977725566661e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.1552734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>210673.7161830809</v>
+        <v>240501.9106597103</v>
       </c>
     </row>
   </sheetData>
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.3225899181562</v>
+        <v>211.5986995309113</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.9888345633497</v>
+        <v>289.5186757738455</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.7028826331743</v>
+        <v>261.8874197000885</v>
       </c>
       <c r="AD2" t="n">
-        <v>178322.5899181562</v>
+        <v>211598.6995309113</v>
       </c>
       <c r="AE2" t="n">
-        <v>243988.8345633497</v>
+        <v>289518.6757738455</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.393196041436337e-06</v>
+        <v>6.801652489934672e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.884440104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>220702.8826331743</v>
+        <v>261887.4197000884</v>
       </c>
     </row>
     <row r="3">
@@ -6643,28 +6643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.203612791552</v>
+        <v>174.3593284237492</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.2516977708013</v>
+        <v>238.5661253399477</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.376448018709</v>
+        <v>215.797709167232</v>
       </c>
       <c r="AD3" t="n">
-        <v>152203.612791552</v>
+        <v>174359.3284237492</v>
       </c>
       <c r="AE3" t="n">
-        <v>208251.6977708013</v>
+        <v>238566.1253399477</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.776021291707907e-06</v>
+        <v>7.569024691517605e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.388020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>188376.448018709</v>
+        <v>215797.709167232</v>
       </c>
     </row>
   </sheetData>
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.9285890534578</v>
+        <v>178.7789952195019</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.0341775747215</v>
+        <v>244.6133084318314</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.8477578202875</v>
+        <v>221.267757592103</v>
       </c>
       <c r="AD2" t="n">
-        <v>146928.5890534578</v>
+        <v>178778.9952195019</v>
       </c>
       <c r="AE2" t="n">
-        <v>201034.1775747215</v>
+        <v>244613.3084318314</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.727398399967186e-06</v>
+        <v>7.797950556462879e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.630533854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>181847.7578202875</v>
+        <v>221267.7575921029</v>
       </c>
     </row>
     <row r="3">
@@ -7046,28 +7046,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.3444441004443</v>
+        <v>179.1948502664884</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.603168796238</v>
+        <v>245.1822996533479</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.3624453182069</v>
+        <v>221.7824450900223</v>
       </c>
       <c r="AD3" t="n">
-        <v>147344.4441004443</v>
+        <v>179194.8502664884</v>
       </c>
       <c r="AE3" t="n">
-        <v>201603.168796238</v>
+        <v>245182.2996533479</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.734822440029718e-06</v>
+        <v>7.813482112557698e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.622395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>182362.4453182069</v>
+        <v>221782.4450900223</v>
       </c>
     </row>
   </sheetData>
@@ -11796,28 +11796,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.602894106347</v>
+        <v>176.3137088604569</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.220303262552</v>
+        <v>241.2401948746295</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.2069971266823</v>
+        <v>218.2165692586048</v>
       </c>
       <c r="AD2" t="n">
-        <v>145602.894106347</v>
+        <v>176313.7088604569</v>
       </c>
       <c r="AE2" t="n">
-        <v>199220.303262552</v>
+        <v>241240.1948746295</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.614785155947511e-06</v>
+        <v>7.858021568049294e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.939778645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>180206.9971266823</v>
+        <v>218216.5692586048</v>
       </c>
     </row>
   </sheetData>
@@ -12093,28 +12093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.8994821529129</v>
+        <v>202.3513628300137</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.9369433852041</v>
+        <v>276.8660617359811</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.2285754551864</v>
+        <v>250.4423533879385</v>
       </c>
       <c r="AD2" t="n">
-        <v>173899.4821529129</v>
+        <v>202351.3628300137</v>
       </c>
       <c r="AE2" t="n">
-        <v>237936.9433852041</v>
+        <v>276866.0617359811</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.06267039852706e-06</v>
+        <v>7.284644123280548e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.258138020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>215228.5754551864</v>
+        <v>250442.3533879385</v>
       </c>
     </row>
   </sheetData>
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.8476973517639</v>
+        <v>282.4174662552277</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.1161537852297</v>
+        <v>386.4160367096759</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.7513840205795</v>
+        <v>349.5370325044174</v>
       </c>
       <c r="AD2" t="n">
-        <v>247847.6973517639</v>
+        <v>282417.4662552277</v>
       </c>
       <c r="AE2" t="n">
-        <v>339116.1537852297</v>
+        <v>386416.0367096759</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.87679780163637e-06</v>
+        <v>5.582651085246017e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.5712890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>306751.3840205795</v>
+        <v>349537.0325044174</v>
       </c>
     </row>
     <row r="3">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.7631595966133</v>
+        <v>180.7244208528996</v>
       </c>
       <c r="AB3" t="n">
-        <v>215.8585149793771</v>
+        <v>247.2751256095663</v>
       </c>
       <c r="AC3" t="n">
-        <v>195.2572812691357</v>
+        <v>223.6755346742796</v>
       </c>
       <c r="AD3" t="n">
-        <v>157763.1595966133</v>
+        <v>180724.4208528996</v>
       </c>
       <c r="AE3" t="n">
-        <v>215858.5149793771</v>
+        <v>247275.1256095663</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.770276268560232e-06</v>
+        <v>7.316515915850101e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.251302083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>195257.2812691357</v>
+        <v>223675.5346742796</v>
       </c>
     </row>
     <row r="4">
@@ -12602,28 +12602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>158.4661795930117</v>
+        <v>181.427440849298</v>
       </c>
       <c r="AB4" t="n">
-        <v>216.8204179535023</v>
+        <v>248.2370285836915</v>
       </c>
       <c r="AC4" t="n">
-        <v>196.12738157345</v>
+        <v>224.5456349785939</v>
       </c>
       <c r="AD4" t="n">
-        <v>158466.1795930117</v>
+        <v>181427.440849298</v>
       </c>
       <c r="AE4" t="n">
-        <v>216820.4179535023</v>
+        <v>248237.0285836915</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.769094548996352e-06</v>
+        <v>7.314222696631844e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.2529296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>196127.38157345</v>
+        <v>224545.6349785939</v>
       </c>
     </row>
   </sheetData>
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>357.1800169890665</v>
+        <v>405.0419989509928</v>
       </c>
       <c r="AB2" t="n">
-        <v>488.7094569146709</v>
+        <v>554.1963321565988</v>
       </c>
       <c r="AC2" t="n">
-        <v>442.0677122547646</v>
+        <v>501.3046120350096</v>
       </c>
       <c r="AD2" t="n">
-        <v>357180.0169890666</v>
+        <v>405041.9989509928</v>
       </c>
       <c r="AE2" t="n">
-        <v>488709.4569146709</v>
+        <v>554196.3321565988</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.334612071347494e-06</v>
+        <v>4.380647948976349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.6162109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>442067.7122547646</v>
+        <v>501304.6120350096</v>
       </c>
     </row>
     <row r="3">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.7856080313697</v>
+        <v>209.6740180935978</v>
       </c>
       <c r="AB3" t="n">
-        <v>254.2000651909655</v>
+        <v>286.8852417203622</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.939567741246</v>
+        <v>259.5053168966209</v>
       </c>
       <c r="AD3" t="n">
-        <v>185785.6080313697</v>
+        <v>209674.0180935978</v>
       </c>
       <c r="AE3" t="n">
-        <v>254200.0651909655</v>
+        <v>286885.2417203622</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.476201503845274e-06</v>
+        <v>6.522717489102579e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.443359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>229939.567741246</v>
+        <v>259505.3168966209</v>
       </c>
     </row>
     <row r="4">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.1485142755515</v>
+        <v>191.0369243377795</v>
       </c>
       <c r="AB4" t="n">
-        <v>228.69997130372</v>
+        <v>261.3851478331167</v>
       </c>
       <c r="AC4" t="n">
-        <v>206.8731670249846</v>
+        <v>236.4389161803594</v>
       </c>
       <c r="AD4" t="n">
-        <v>167148.5142755515</v>
+        <v>191036.9243377796</v>
       </c>
       <c r="AE4" t="n">
-        <v>228699.97130372</v>
+        <v>261385.1478331167</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.711446741015846e-06</v>
+        <v>6.964129824096172e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.161783854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>206873.1670249845</v>
+        <v>236438.9161803594</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.7193118155153</v>
+        <v>234.3600836684484</v>
       </c>
       <c r="AB2" t="n">
-        <v>270.5282851862793</v>
+        <v>320.6618057122061</v>
       </c>
       <c r="AC2" t="n">
-        <v>244.709445337013</v>
+        <v>290.0582930267993</v>
       </c>
       <c r="AD2" t="n">
-        <v>197719.3118155153</v>
+        <v>234360.0836684484</v>
       </c>
       <c r="AE2" t="n">
-        <v>270528.2851862793</v>
+        <v>320661.8057122061</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.56916606172672e-06</v>
+        <v>6.425289347569332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.724609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>244709.445337013</v>
+        <v>290058.2930267993</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.9987888629067</v>
+        <v>172.7120236661639</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.6032045185494</v>
+        <v>236.3122102966638</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.8852846487766</v>
+        <v>213.7589046122888</v>
       </c>
       <c r="AD2" t="n">
-        <v>150998.7888629067</v>
+        <v>172712.0236661639</v>
       </c>
       <c r="AE2" t="n">
-        <v>206603.2045185494</v>
+        <v>236312.2102966638</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.709125080326492e-06</v>
+        <v>7.638139922011268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.586588541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>186885.2846487766</v>
+        <v>213758.9046122888</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.5071984615059</v>
+        <v>170.220433264763</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.1941006101437</v>
+        <v>232.9031063882581</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.8015408326807</v>
+        <v>210.6751607961929</v>
       </c>
       <c r="AD3" t="n">
-        <v>148507.1984615058</v>
+        <v>170220.433264763</v>
       </c>
       <c r="AE3" t="n">
-        <v>203194.1006101437</v>
+        <v>232903.1063882581</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.762844164330093e-06</v>
+        <v>7.748762743085198e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.519856770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>183801.5408326807</v>
+        <v>210675.1607961929</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.1241327568836</v>
+        <v>229.6468369229815</v>
       </c>
       <c r="AB2" t="n">
-        <v>283.3963761096699</v>
+        <v>314.2129335812904</v>
       </c>
       <c r="AC2" t="n">
-        <v>256.3494237231583</v>
+        <v>284.2248922010072</v>
       </c>
       <c r="AD2" t="n">
-        <v>207124.1327568836</v>
+        <v>229646.8369229815</v>
       </c>
       <c r="AE2" t="n">
-        <v>283396.3761096699</v>
+        <v>314212.9335812904</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.215190650001902e-06</v>
+        <v>6.369884632136469e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.094401041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>256349.4237231583</v>
+        <v>284224.8922010072</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.3451639597377</v>
+        <v>175.7825272712639</v>
       </c>
       <c r="AB3" t="n">
-        <v>209.8136184407954</v>
+        <v>240.5134087902183</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.7893011721288</v>
+        <v>217.5591466180388</v>
       </c>
       <c r="AD3" t="n">
-        <v>153345.1639597377</v>
+        <v>175782.5272712639</v>
       </c>
       <c r="AE3" t="n">
-        <v>209813.6184407954</v>
+        <v>240513.4087902182</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.788336393513022e-06</v>
+        <v>7.505391872916656e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>189789.3011721288</v>
+        <v>217559.1466180388</v>
       </c>
     </row>
   </sheetData>
